--- a/data/trans_bre/P12B1_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-17,47</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,92</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-38,32%</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-19,88%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>-21,41%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-44,18%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-15,12%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-49,28; 17,29</t>
+          <t>-15,88; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-39,37; 28,43</t>
+          <t>-10,89; 4,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 41,86</t>
+          <t>-13,32; 3,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-79,48; 87,03</t>
+          <t>-7,13; 4,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-79,24; 292,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,62; 427,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,78</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,57</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,34</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>214,88%</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,24%</t>
+          <t>462,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>-18,7%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>566,34%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-25,56%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 47,37</t>
+          <t>0,33; 5,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 41,25</t>
+          <t>-4,76; 2,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 46,96</t>
+          <t>0,48; 5,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 1947,23</t>
+          <t>-4,36; 2,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,26; 332,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,43; 1505,87</t>
+          <t>-84,11; 291,31</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-92,38; 320,81</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-46,87</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-28,11</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-78,67%</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>-78,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-54,44%</t>
+          <t>-22,02%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-74,35%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-48,38%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-77,52; -5,42</t>
+          <t>-8,75; -0,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-45,43; 34,28</t>
+          <t>-3,86; 2,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-58,92; 6,17</t>
+          <t>-10,17; -0,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -1,82</t>
+          <t>-8,5; 1,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-83,78; 447,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-86,56; 20,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-94,93; 37,11</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-88,11; 99,54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,01%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 17,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 22,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 24,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,99; 97,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,57; 134,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,39; 143,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-40,34%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-21,57%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-23,95%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-34,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 0,83</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 1,48</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 1,59</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 1,25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-78,58; 56,12</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-73,76; 116,1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-68,5; 106,06</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-75,57; 67,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P12B1_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,175 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-5,73</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,23</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-21,41%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-44,18%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-15,12%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-8.603082546833422</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.259051730651205</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.559935967155999</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.057282264738494</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.2860894154265874</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.4669642368896177</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.334810499526338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,88; 0,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,89; 4,97</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,32; 3,48</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,13; 4,34</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-26.4184547812284</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.8477503319259</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-14.74625010738619</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-8.839096836581398</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-1.596745903849665</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.906168720797957</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.372312673588701</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.376860133743166</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,29</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>462,99%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-18,7%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>566,34%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-25,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,33; 5,41</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,76; 2,62</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 5,97</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,36; 2,3</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-84,11; 291,31</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-92,38; 320,81</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.811855510574293</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2730110558126414</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.184367628192568</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.3717398830980663</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>5.851041084482283</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.09918144335611244</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>5.098990280656319</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1647179701358836</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,82</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,24</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,58</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-78,35%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-22,02%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-74,35%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-48,38%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.5757121762689648</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.697329009346006</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.387842311014745</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.797083501211203</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.8173578305432375</v>
+      </c>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-0.9291863099069096</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,75; -0,4</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,86; 2,03</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,17; -0,35</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,5; 1,46</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-94,93; 37,11</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-88,11; 99,54</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.717849992064708</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.928686790912899</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.6266127567698</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.340447680613376</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>3.504382460517806</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>3.426546375212126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +803,203 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-5.736975676014637</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.3046586335785368</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-4.34287989716379</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.003326657591341</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.8475022571387074</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1606320478542748</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.7575559349439148</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.5378854542561022</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.25896020405513</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.617739217105803</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-10.55582705209056</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-9.138352829915641</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.9554526981130887</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8903522674026604</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-1.34168523751031</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.126551586831989</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.5833446264283462</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.089301851501778</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.2175153381805157</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.6745937455288236</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,7</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-40,34%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-21,57%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-23,95%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-34,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 0,83</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,93; 1,48</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,91; 1,59</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; 1,25</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-78,58; 56,12</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-73,76; 116,1</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-68,5; 106,06</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-75,57; 67,27</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-2.108104277695661</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.4382250817857168</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.7807039537587955</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.356460161996413</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.5226115140226998</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1649933330346727</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2629269841773103</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.3838510195306376</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.436370055548657</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.751072825522189</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.070732437084509</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.139733250344581</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.8657607610665308</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.7152198119965691</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7038282798621098</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.766316994162354</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.2749450481403196</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.623056727728043</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.497357853597782</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.016756790187777</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2029678284202297</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.272724178492808</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.9565248669109947</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5903749656005201</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
